--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H2">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I2">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J2">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N2">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O2">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P2">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q2">
-        <v>185.2862888624325</v>
+        <v>184.5407462152561</v>
       </c>
       <c r="R2">
-        <v>1667.576599761892</v>
+        <v>1660.866715937305</v>
       </c>
       <c r="S2">
-        <v>0.06040346211318366</v>
+        <v>0.08199671298784271</v>
       </c>
       <c r="T2">
-        <v>0.06040346211318366</v>
+        <v>0.08199671298784271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H3">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I3">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J3">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P3">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q3">
-        <v>11.734797124596</v>
+        <v>11.823688006221</v>
       </c>
       <c r="R3">
-        <v>105.613174121364</v>
+        <v>106.413192055989</v>
       </c>
       <c r="S3">
-        <v>0.003825552219072739</v>
+        <v>0.005253601558395301</v>
       </c>
       <c r="T3">
-        <v>0.003825552219072739</v>
+        <v>0.005253601558395301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H4">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I4">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J4">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N4">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q4">
-        <v>1.045114722704444</v>
+        <v>2.046631064582</v>
       </c>
       <c r="R4">
-        <v>9.406032504339999</v>
+        <v>18.419679581238</v>
       </c>
       <c r="S4">
-        <v>0.0003407081438372309</v>
+        <v>0.0009093765113466288</v>
       </c>
       <c r="T4">
-        <v>0.0003407081438372309</v>
+        <v>0.0009093765113466289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H5">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I5">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J5">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N5">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q5">
-        <v>53.86691144744845</v>
+        <v>32.05010958819923</v>
       </c>
       <c r="R5">
-        <v>484.802203027036</v>
+        <v>288.4509862937931</v>
       </c>
       <c r="S5">
-        <v>0.01756065149097971</v>
+        <v>0.0142407771239153</v>
       </c>
       <c r="T5">
-        <v>0.01756065149097971</v>
+        <v>0.01424077712391529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H6">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I6">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J6">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N6">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O6">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P6">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q6">
-        <v>0.103255338988</v>
+        <v>1.351867543264333</v>
       </c>
       <c r="R6">
-        <v>0.9292980508919999</v>
+        <v>12.166807889379</v>
       </c>
       <c r="S6">
-        <v>3.366131403914242E-05</v>
+        <v>0.000600673277940076</v>
       </c>
       <c r="T6">
-        <v>3.366131403914241E-05</v>
+        <v>0.000600673277940076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
         <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N7">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O7">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P7">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q7">
-        <v>671.3295153387797</v>
+        <v>663.6014946408116</v>
       </c>
       <c r="R7">
-        <v>6041.965638049018</v>
+        <v>5972.413451767305</v>
       </c>
       <c r="S7">
-        <v>0.2188539000602205</v>
+        <v>0.2948570568306703</v>
       </c>
       <c r="T7">
-        <v>0.2188539000602205</v>
+        <v>0.2948570568306703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
         <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P8">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q8">
-        <v>42.517531732221</v>
+        <v>42.51753173222099</v>
       </c>
       <c r="R8">
-        <v>382.657785589989</v>
+        <v>382.6577855899889</v>
       </c>
       <c r="S8">
-        <v>0.01386074562182032</v>
+        <v>0.01889175110591487</v>
       </c>
       <c r="T8">
-        <v>0.01386074562182032</v>
+        <v>0.01889175110591487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
         <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N9">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q9">
-        <v>3.786660980551666</v>
+        <v>7.359607356581998</v>
       </c>
       <c r="R9">
-        <v>34.079948824965</v>
+        <v>66.23646620923799</v>
       </c>
       <c r="S9">
-        <v>0.001234454176175142</v>
+        <v>0.003270083298660581</v>
       </c>
       <c r="T9">
-        <v>0.001234454176175142</v>
+        <v>0.003270083298660582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
         <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N10">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q10">
-        <v>195.1706614495457</v>
+        <v>115.2509733613103</v>
       </c>
       <c r="R10">
-        <v>1756.535953045911</v>
+        <v>1037.258760251793</v>
       </c>
       <c r="S10">
-        <v>0.0636257746153331</v>
+        <v>0.05120929213786616</v>
       </c>
       <c r="T10">
-        <v>0.06362577461533309</v>
+        <v>0.05120929213786615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
         <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N11">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O11">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P11">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q11">
-        <v>0.3741148743630001</v>
+        <v>4.861264195931</v>
       </c>
       <c r="R11">
-        <v>3.367033869267</v>
+        <v>43.751377763379</v>
       </c>
       <c r="S11">
-        <v>0.0001219617154529007</v>
+        <v>0.002159998229154646</v>
       </c>
       <c r="T11">
-        <v>0.0001219617154529006</v>
+        <v>0.002159998229154646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H12">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N12">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O12">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P12">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q12">
-        <v>659.5497777910849</v>
+        <v>427.8353505013028</v>
       </c>
       <c r="R12">
-        <v>5935.948000119764</v>
+        <v>3850.518154511725</v>
       </c>
       <c r="S12">
-        <v>0.2150136972312151</v>
+        <v>0.1900994396120429</v>
       </c>
       <c r="T12">
-        <v>0.215013697231215</v>
+        <v>0.1900994396120429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H13">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P13">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q13">
-        <v>41.771481761919</v>
+        <v>27.411787402545</v>
       </c>
       <c r="R13">
-        <v>375.943335857271</v>
+        <v>246.706086622905</v>
       </c>
       <c r="S13">
-        <v>0.01361753280023298</v>
+        <v>0.01217983838381395</v>
       </c>
       <c r="T13">
-        <v>0.01361753280023298</v>
+        <v>0.01217983838381394</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H14">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N14">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q14">
-        <v>3.720216899792777</v>
+        <v>4.744866035389999</v>
       </c>
       <c r="R14">
-        <v>33.481952098135</v>
+        <v>42.70379431851</v>
       </c>
       <c r="S14">
-        <v>0.001212793358532318</v>
+        <v>0.002108279209057803</v>
       </c>
       <c r="T14">
-        <v>0.001212793358532318</v>
+        <v>0.002108279209057803</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H15">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N15">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q15">
-        <v>191.7460255347588</v>
+        <v>74.30429404072056</v>
       </c>
       <c r="R15">
-        <v>1725.714229812829</v>
+        <v>668.738646366485</v>
       </c>
       <c r="S15">
-        <v>0.06250934086839857</v>
+        <v>0.03301551552801485</v>
       </c>
       <c r="T15">
-        <v>0.06250934086839857</v>
+        <v>0.03301551552801484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H16">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N16">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O16">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P16">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q16">
-        <v>0.3675503260570001</v>
+        <v>3.134141028828334</v>
       </c>
       <c r="R16">
-        <v>3.307952934513</v>
+        <v>28.207269259455</v>
       </c>
       <c r="S16">
-        <v>0.0001198216680304708</v>
+        <v>0.001392588182690536</v>
       </c>
       <c r="T16">
-        <v>0.0001198216680304708</v>
+        <v>0.001392588182690536</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H17">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I17">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J17">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N17">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O17">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P17">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q17">
-        <v>109.6545079340176</v>
+        <v>94.32570016827667</v>
       </c>
       <c r="R17">
-        <v>986.8905714061581</v>
+        <v>848.93130151449</v>
       </c>
       <c r="S17">
-        <v>0.03574744767244983</v>
+        <v>0.04191159688415783</v>
       </c>
       <c r="T17">
-        <v>0.03574744767244983</v>
+        <v>0.04191159688415783</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H18">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I18">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J18">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.975427</v>
       </c>
       <c r="O18">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P18">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q18">
-        <v>6.944784810053999</v>
+        <v>6.043530616577999</v>
       </c>
       <c r="R18">
-        <v>62.503063290486</v>
+        <v>54.39177554920199</v>
       </c>
       <c r="S18">
-        <v>0.00226400479352125</v>
+        <v>0.002685312894653392</v>
       </c>
       <c r="T18">
-        <v>0.00226400479352125</v>
+        <v>0.002685312894653391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H19">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I19">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J19">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N19">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q19">
-        <v>0.6185106375455555</v>
+        <v>1.046109935676</v>
       </c>
       <c r="R19">
-        <v>5.566595737909999</v>
+        <v>9.414989421084</v>
       </c>
       <c r="S19">
-        <v>0.000201634908286832</v>
+        <v>0.0004648164587418596</v>
       </c>
       <c r="T19">
-        <v>0.000201634908286832</v>
+        <v>0.0004648164587418595</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H20">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I20">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J20">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N20">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q20">
-        <v>31.87904353290156</v>
+        <v>16.38201367111933</v>
       </c>
       <c r="R20">
-        <v>286.911391796114</v>
+        <v>147.438123040074</v>
       </c>
       <c r="S20">
-        <v>0.01039259089307917</v>
+        <v>0.007278995564409604</v>
       </c>
       <c r="T20">
-        <v>0.01039259089307917</v>
+        <v>0.007278995564409602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H21">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I21">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J21">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N21">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O21">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P21">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q21">
-        <v>0.061107669962</v>
+        <v>0.690990229358</v>
       </c>
       <c r="R21">
-        <v>0.549969029658</v>
+        <v>6.218912064222</v>
       </c>
       <c r="S21">
-        <v>1.99211439229327E-05</v>
+        <v>0.0003070266522493746</v>
       </c>
       <c r="T21">
-        <v>1.99211439229327E-05</v>
+        <v>0.0003070266522493746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H22">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I22">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J22">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N22">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O22">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P22">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q22">
-        <v>629.2576728503302</v>
+        <v>421.3345835548433</v>
       </c>
       <c r="R22">
-        <v>5663.319055652972</v>
+        <v>3792.01125199359</v>
       </c>
       <c r="S22">
-        <v>0.2051384494492489</v>
+        <v>0.1872109635847057</v>
       </c>
       <c r="T22">
-        <v>0.2051384494492489</v>
+        <v>0.1872109635847057</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H23">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I23">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J23">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.975427</v>
       </c>
       <c r="O23">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P23">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q23">
-        <v>39.852981973623</v>
+        <v>26.995277543598</v>
       </c>
       <c r="R23">
-        <v>358.676837762607</v>
+        <v>242.957497892382</v>
       </c>
       <c r="S23">
-        <v>0.01299210050306755</v>
+        <v>0.01199477118287802</v>
       </c>
       <c r="T23">
-        <v>0.01299210050306755</v>
+        <v>0.01199477118287802</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H24">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I24">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J24">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N24">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q24">
-        <v>3.549353070366111</v>
+        <v>4.672769916516</v>
       </c>
       <c r="R24">
-        <v>31.944177633295</v>
+        <v>42.05492924864399</v>
       </c>
       <c r="S24">
-        <v>0.001157091628465556</v>
+        <v>0.002076244848689751</v>
       </c>
       <c r="T24">
-        <v>0.001157091628465557</v>
+        <v>0.002076244848689751</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H25">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I25">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J25">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N25">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q25">
-        <v>182.9394260587881</v>
+        <v>73.17527350019267</v>
       </c>
       <c r="R25">
-        <v>1646.454834529093</v>
+        <v>658.577461501734</v>
       </c>
       <c r="S25">
-        <v>0.05963838316797353</v>
+        <v>0.03251385952457017</v>
       </c>
       <c r="T25">
-        <v>0.05963838316797353</v>
+        <v>0.03251385952457016</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H26">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I26">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J26">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N26">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O26">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P26">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q26">
-        <v>0.350669305969</v>
+        <v>3.086519156578</v>
       </c>
       <c r="R26">
-        <v>3.156023753721</v>
+        <v>27.778672409202</v>
       </c>
       <c r="S26">
-        <v>0.0001143184434606568</v>
+        <v>0.001371428427617803</v>
       </c>
       <c r="T26">
-        <v>0.0001143184434606568</v>
+        <v>0.001371428427617802</v>
       </c>
     </row>
   </sheetData>
